--- a/Surveillance générale1.4.0.xlsx
+++ b/Surveillance générale1.4.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\Surveillance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76228531-9698-42D7-AEFD-4405340A4527}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0106F0B-727D-4F3D-A94C-B7F652876F48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-120" windowWidth="23250" windowHeight="13740" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="352">
   <si>
     <t>ETABLISSEMENT</t>
   </si>
@@ -1085,6 +1085,15 @@
   </si>
   <si>
     <t>TRAC03</t>
+  </si>
+  <si>
+    <t>Cliquer sur le triangle pointant vers le haut/bas</t>
+  </si>
+  <si>
+    <t>Tri croissant/décroissant</t>
+  </si>
+  <si>
+    <t>10/03/2021</t>
   </si>
 </sst>
 </file>
@@ -8753,7 +8762,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="91"/>
     </row>
-    <row r="20" spans="1:8" ht="25.5" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="81" t="s">
         <v>122</v>
       </c>
@@ -11206,7 +11215,7 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12373,7 +12382,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" location="TB_traçabilité!A4" display="TB_traçabilité!A4" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B7" location="TB_traçabilité!A5" display="TB_traçabilité!A5" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
     <hyperlink ref="B8" location="TB_traçabilité!A6" display="TB_traçabilité!A6" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
     <hyperlink ref="A12" location="Surveillance_générale!A77" display="Parcourt" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
   </hyperlinks>
@@ -12387,15 +12396,15 @@
   <dimension ref="A1:DU77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="77.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
     <col min="5" max="5" width="54.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
@@ -13076,13 +13085,13 @@
       </c>
       <c r="C19" s="87"/>
       <c r="D19" s="85" t="s">
-        <v>86</v>
+        <v>349</v>
       </c>
       <c r="E19" s="87" t="s">
-        <v>87</v>
+        <v>350</v>
       </c>
       <c r="F19" s="85" t="s">
-        <v>21</v>
+        <v>351</v>
       </c>
       <c r="G19" s="87" t="s">
         <v>78</v>
@@ -13096,7 +13105,7 @@
       </c>
       <c r="C20" s="87"/>
       <c r="D20" s="85" t="s">
-        <v>86</v>
+        <v>349</v>
       </c>
       <c r="E20" s="87" t="s">
         <v>127</v>
@@ -13109,15 +13118,14 @@
       </c>
       <c r="H20" s="88"/>
     </row>
-    <row r="21" spans="1:125" ht="24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A21" s="85"/>
       <c r="B21" s="128" t="s">
         <v>248</v>
       </c>
       <c r="C21" s="87"/>
-      <c r="D21" s="85" t="str">
-        <f>"Modifier des seuils dans le fichier cfg_seuils.csv "</f>
-        <v xml:space="preserve">Modifier des seuils dans le fichier cfg_seuils.csv </v>
+      <c r="D21" s="85" t="s">
+        <v>349</v>
       </c>
       <c r="E21" s="85" t="s">
         <v>106</v>
@@ -13136,8 +13144,8 @@
         <v>249</v>
       </c>
       <c r="C22" s="118"/>
-      <c r="D22" s="118" t="s">
-        <v>109</v>
+      <c r="D22" s="85" t="s">
+        <v>349</v>
       </c>
       <c r="E22" s="118" t="s">
         <v>110</v>
@@ -13154,9 +13162,8 @@
       <c r="A23" s="122"/>
       <c r="B23" s="129"/>
       <c r="C23" s="118"/>
-      <c r="D23" s="118" t="str">
-        <f>cfg_seuils!$D$3</f>
-        <v>emttrDebitJaune</v>
+      <c r="D23" s="85" t="s">
+        <v>349</v>
       </c>
       <c r="E23" s="118" t="s">
         <v>110</v>
@@ -13175,9 +13182,8 @@
         <v>250</v>
       </c>
       <c r="C24" s="118"/>
-      <c r="D24" s="118" t="str">
-        <f>cfg_seuils!$D$3</f>
-        <v>emttrDebitJaune</v>
+      <c r="D24" s="85" t="s">
+        <v>349</v>
       </c>
       <c r="E24" s="118" t="s">
         <v>110</v>
@@ -13190,15 +13196,14 @@
       </c>
       <c r="H24" s="123"/>
     </row>
-    <row r="25" spans="1:125" ht="24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A25" s="85"/>
       <c r="B25" s="130" t="s">
         <v>334</v>
       </c>
       <c r="C25" s="87"/>
-      <c r="D25" s="85" t="str">
-        <f>"Modifier des seuils dans le fichier cfg_seuils.csv "</f>
-        <v xml:space="preserve">Modifier des seuils dans le fichier cfg_seuils.csv </v>
+      <c r="D25" s="85" t="s">
+        <v>349</v>
       </c>
       <c r="E25" s="85" t="s">
         <v>106</v>
@@ -13217,8 +13222,8 @@
         <v>335</v>
       </c>
       <c r="C26" s="118"/>
-      <c r="D26" s="118" t="s">
-        <v>109</v>
+      <c r="D26" s="85" t="s">
+        <v>349</v>
       </c>
       <c r="E26" s="118" t="s">
         <v>134</v>
@@ -13986,7 +13991,7 @@
       <c r="G69" s="82"/>
       <c r="H69" s="84"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="85"/>
       <c r="B70" s="86" t="s">
         <v>199</v>
